--- a/Data/Temp/Yearly-Report-2021-IT231232.xlsx
+++ b/Data/Temp/Yearly-Report-2021-IT231232.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <x:si>
     <x:t>536752</x:t>
   </x:si>
@@ -94,6 +94,24 @@
     <x:t>2017-07-08</x:t>
   </x:si>
   <x:si>
+    <x:t>416313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Concierge Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36512.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-24</x:t>
+  </x:si>
+  <x:si>
     <x:t>245026</x:t>
   </x:si>
   <x:si>
@@ -128,9 +146,6 @@
   </x:si>
   <x:si>
     <x:t>444846</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Concierge Services</x:t>
   </x:si>
   <x:si>
     <x:t>15046</x:t>
@@ -593,71 +608,163 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="A8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="B10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="D10" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="E10" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
+      <x:c r="F10" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
         <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>47</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
